--- a/static/blank.xlsx
+++ b/static/blank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t xml:space="preserve">Алгоритм заполнения Бланка раскроя</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">Кромка 26/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер заказа</t>
   </si>
   <si>
     <t xml:space="preserve">Заказчик</t>
@@ -164,6 +167,9 @@
     <t xml:space="preserve">(Варианты 1/2/3 1=Стрейч, 2=Бумага, 3=Гофрокартон)</t>
   </si>
   <si>
+    <t xml:space="preserve">Комментарий</t>
+  </si>
+  <si>
     <t xml:space="preserve">Таблица с размерами и параметрами деталей заполняется для каждого вида материала</t>
   </si>
   <si>
@@ -279,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">тип отверстий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговая стоимость</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -340,14 +349,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -356,12 +365,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -750,7 +753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -855,14 +858,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -871,39 +874,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,7 +910,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -919,15 +918,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,43 +938,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,15 +986,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1003,7 +1002,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1015,19 +1014,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1035,11 +1034,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1071,7 +1070,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1083,7 +1082,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1149,12 +1148,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1226,13 +1225,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>19080</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>674640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1241,8 +1240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11039400" y="4429080"/>
-          <a:ext cx="1432800" cy="723600"/>
+          <a:off x="11040120" y="4429440"/>
+          <a:ext cx="1430640" cy="722160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1271,13 +1270,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>123480</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>285480</xdr:rowOff>
+      <xdr:rowOff>295560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>561960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>285480</xdr:rowOff>
+      <xdr:rowOff>295560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1286,8 +1285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11143800" y="4695480"/>
-          <a:ext cx="1214280" cy="0"/>
+          <a:off x="11144520" y="4695840"/>
+          <a:ext cx="1213560" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1313,13 +1312,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>114120</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
+      <xdr:rowOff>352800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
+      <xdr:rowOff>352800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1328,8 +1327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11134440" y="4752720"/>
-          <a:ext cx="1213920" cy="0"/>
+          <a:off x="11135160" y="4753080"/>
+          <a:ext cx="1213200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1355,13 +1354,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>114120</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>409320</xdr:rowOff>
+      <xdr:rowOff>419400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>409320</xdr:rowOff>
+      <xdr:rowOff>419400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1370,8 +1369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11134440" y="4819320"/>
-          <a:ext cx="1213920" cy="0"/>
+          <a:off x="11135160" y="4819680"/>
+          <a:ext cx="1213200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1395,15 +1394,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>771120</xdr:colOff>
+      <xdr:colOff>770040</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1412,8 +1411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5840640" y="4410000"/>
-          <a:ext cx="1395360" cy="742320"/>
+          <a:off x="5839560" y="4410360"/>
+          <a:ext cx="1396440" cy="740880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1440,15 +1439,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>314640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>657000</xdr:colOff>
+      <xdr:colOff>657360</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>314640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1457,8 +1456,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5947560" y="4714560"/>
-          <a:ext cx="1174320" cy="0"/>
+          <a:off x="5947920" y="4714920"/>
+          <a:ext cx="1175400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1482,15 +1481,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>86040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>361800</xdr:rowOff>
+      <xdr:rowOff>371880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>647640</xdr:colOff>
+      <xdr:colOff>648000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>361800</xdr:rowOff>
+      <xdr:rowOff>371880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1499,8 +1498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5938200" y="4771800"/>
-          <a:ext cx="1174320" cy="0"/>
+          <a:off x="5938560" y="4772160"/>
+          <a:ext cx="1175400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1524,15 +1523,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>86040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>428400</xdr:rowOff>
+      <xdr:rowOff>438480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>647640</xdr:colOff>
+      <xdr:colOff>648000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>428400</xdr:rowOff>
+      <xdr:rowOff>438480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1541,8 +1540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5938200" y="4838400"/>
-          <a:ext cx="1174320" cy="0"/>
+          <a:off x="5938560" y="4838760"/>
+          <a:ext cx="1175400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1566,15 +1565,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>579600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1583,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3375360" y="4438440"/>
-          <a:ext cx="1518840" cy="713880"/>
+          <a:off x="3374280" y="4438800"/>
+          <a:ext cx="1517400" cy="712440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1611,15 +1610,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
+      <xdr:rowOff>352800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419040</xdr:colOff>
+      <xdr:colOff>419400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>352080</xdr:rowOff>
+      <xdr:rowOff>362160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1628,7 +1627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3518280" y="4752720"/>
+          <a:off x="3517200" y="4753080"/>
           <a:ext cx="1214280" cy="9360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1653,15 +1652,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>399960</xdr:rowOff>
+      <xdr:rowOff>410040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>409680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>399960</xdr:rowOff>
+      <xdr:rowOff>410040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1670,7 +1669,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3518280" y="4809960"/>
+          <a:off x="3517200" y="4810320"/>
           <a:ext cx="1204560" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1695,15 +1694,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>466560</xdr:rowOff>
+      <xdr:rowOff>476640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419040</xdr:colOff>
+      <xdr:colOff>419400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>466560</xdr:rowOff>
+      <xdr:rowOff>476640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1712,7 +1711,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3518280" y="4876560"/>
+          <a:off x="3517200" y="4876920"/>
           <a:ext cx="1214280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1739,13 +1738,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>123480</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>561960</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1754,8 +1753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11143800" y="5238360"/>
-          <a:ext cx="1214280" cy="0"/>
+          <a:off x="11144520" y="5238360"/>
+          <a:ext cx="1213560" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1781,13 +1780,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>114120</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1796,8 +1795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11134440" y="5295600"/>
-          <a:ext cx="1213920" cy="0"/>
+          <a:off x="11135160" y="5295600"/>
+          <a:ext cx="1213200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1823,13 +1822,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>114120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1838,8 +1837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11134440" y="5362200"/>
-          <a:ext cx="1213920" cy="0"/>
+          <a:off x="11135160" y="5362200"/>
+          <a:ext cx="1213200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1868,19 +1867,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="16"/>
@@ -1888,7 +1886,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2396,14 +2393,16 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
@@ -2411,668 +2410,676 @@
       <c r="O26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="27"/>
+      <c r="A27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="26"/>
       <c r="C27" s="4"/>
       <c r="I27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
-        <v>41</v>
+      <c r="A28" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="4"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="I29" s="32"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="33" t="s">
+      <c r="A30" s="25" t="s">
         <v>44</v>
       </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="I30" s="32"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="34" t="s">
+      <c r="A31" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="D31" s="4"/>
-      <c r="I31" s="32"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="26"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="32"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="32"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>47</v>
+      <c r="A34" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="32"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42" t="s">
+      <c r="A35" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="44" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="40" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="40"/>
+      <c r="K35" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P35" s="45"/>
+      <c r="P35" s="44"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="52" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="54" t="s">
+      <c r="G36" s="50"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56" t="s">
+      <c r="J36" s="51"/>
+      <c r="K36" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="O36" s="57"/>
-      <c r="P36" s="58"/>
+      <c r="L36" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="54"/>
+      <c r="N36" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="56"/>
+      <c r="P36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39"/>
-      <c r="B37" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="51" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="P37" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="38"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="54"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="66"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="38"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" s="54"/>
+      <c r="N39" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" s="59"/>
+      <c r="P39" s="66"/>
+    </row>
+    <row r="40" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="38"/>
+      <c r="B40" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="38"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="70"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="38"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="71"/>
+    </row>
+    <row r="43" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="56"/>
+      <c r="P43" s="81"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="56"/>
+    </row>
+    <row r="45" s="91" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="83"/>
+      <c r="B45" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="90"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="J46" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="54"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="O37" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" s="61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="M38" s="55"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="67"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="O39" s="60"/>
-      <c r="P39" s="67"/>
-    </row>
-    <row r="40" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39"/>
-      <c r="B40" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="55" t="s">
+      <c r="L46" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="65"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="P40" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="72"/>
-    </row>
-    <row r="43" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="57"/>
-      <c r="P43" s="82"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="57"/>
-    </row>
-    <row r="45" s="92" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="91"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="M46" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="N46" s="98" t="s">
-        <v>85</v>
+      <c r="N46" s="97" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="93"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="98"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="93"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="98"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="97"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="93"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="98"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="93"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="98"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="97"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="93"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
-      <c r="L51" s="97"/>
-      <c r="M51" s="97"/>
-      <c r="N51" s="98"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="97"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="93"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-      <c r="N52" s="98"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="97"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="93"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="98"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="97"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="93"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="97"/>
-      <c r="N54" s="98"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="97"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="93"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="97"/>
-      <c r="M55" s="97"/>
-      <c r="N55" s="98"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="97"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="93"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="98"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="97"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="93"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="97"/>
-      <c r="M57" s="97"/>
-      <c r="N57" s="98"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="97"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="93"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="98"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="97"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="93"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="97"/>
-      <c r="M59" s="97"/>
-      <c r="N59" s="98"/>
+      <c r="A59" s="92"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="97"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="93"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="98"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="97"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="93"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="98"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="97"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="93"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="98"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="97"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
